--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Graficas/Temp6.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -380,12 +380,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Descripción', 'Valor total de la construcción de la hornilla', 'Valor total de la construcción del recuperador de calor', 'Valor total del gasto operativo durante la construcción', 'Seguro contra gastos imprevistos (2% del total de la construcción de la hornilla)', 'Movilidad', 'Valor total de la construcción con recuperador de calor', 'Valor total de la construcción sin recuperador de calor']</t>
+          <t>['Descripción', 'Valor total de la construcción de la hornilla', 'Valor total de la construcción del recuperador de calor', 'Valor total del gasto operativo durante la construcción', 'Seguro contra gastos imprevistos (2% del total de la construcción de la hornilla)', 'Valor total de la construcción con recuperador de calor', 'Valor total de la construcción sin recuperador de calor']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Valor aproximado', 56965127, 72589900.0, 61200000.0, 1139303, 6000000.0, 197894330.0, 125304430.0]</t>
+          <t>['Valor aproximado', 64535959, 72589900.0, 61200000.0, 1290720, 199616579.0, 127026679.0]</t>
         </is>
       </c>
     </row>
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['NO', 'SI'], [75.0, 100.0], [12, 9], [0, 1], [158, 119], [16, 12], [2, 1], [84, 63], [272, 205]]</t>
+          <t>[['NO', 'SI'], [75.0, 100.0], [23, 18], [0, 1], [18, 14], [16, 12], [2, 1], [84, 63], [143, 109]]</t>
         </is>
       </c>
     </row>
@@ -415,11 +415,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1468.0, ' '], [482065411, 305238314], [6266654, 3967974], [280500.0, 224400.0], [3366000.0, 2692800.0], [9894716.5, 6265222.0], [4941288000.0, 3953030400.0]]</t>
+          <t>[['SI', 'NO'], [30, ' '], [0.28, ' '], [5.0, ' '], [1500.0, ' '], [486260764, 309433667], [6321192, 4022512], [879750.0, 703800.0], [10557000.0, 8445600.0], [9980828.950000001, 6351334.0], [15835500000.0, 12668400000.0]]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>